--- a/Code/Results/Cases/Case_5_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_91/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014943399621909</v>
+        <v>1.044347406509429</v>
       </c>
       <c r="D2">
-        <v>1.036231734222027</v>
+        <v>1.051968282271224</v>
       </c>
       <c r="E2">
-        <v>1.029741782526987</v>
+        <v>1.052089468472426</v>
       </c>
       <c r="F2">
-        <v>1.041564365801396</v>
+        <v>1.062542699770794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056425342864225</v>
+        <v>1.042932735327767</v>
       </c>
       <c r="J2">
-        <v>1.036686161158872</v>
+        <v>1.049412977925657</v>
       </c>
       <c r="K2">
-        <v>1.047208366280146</v>
+        <v>1.054718315282301</v>
       </c>
       <c r="L2">
-        <v>1.040801752107218</v>
+        <v>1.054839165913459</v>
       </c>
       <c r="M2">
-        <v>1.052473491182524</v>
+        <v>1.065263763622047</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019646580322025</v>
+        <v>1.045343851258234</v>
       </c>
       <c r="D3">
-        <v>1.039875893042613</v>
+        <v>1.052749651937033</v>
       </c>
       <c r="E3">
-        <v>1.033605666090762</v>
+        <v>1.052953231347063</v>
       </c>
       <c r="F3">
-        <v>1.045618316539836</v>
+        <v>1.063439417389199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057878188693021</v>
+        <v>1.043152968992481</v>
       </c>
       <c r="J3">
-        <v>1.03961562061003</v>
+        <v>1.050056408429247</v>
       </c>
       <c r="K3">
-        <v>1.050022763251449</v>
+        <v>1.055312517614185</v>
       </c>
       <c r="L3">
-        <v>1.043825880741326</v>
+        <v>1.055515574008128</v>
       </c>
       <c r="M3">
-        <v>1.055698968807724</v>
+        <v>1.065975111797181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022627236486988</v>
+        <v>1.045988991601382</v>
       </c>
       <c r="D4">
-        <v>1.042185943004126</v>
+        <v>1.053255244276344</v>
       </c>
       <c r="E4">
-        <v>1.036059680752978</v>
+        <v>1.053512762115651</v>
       </c>
       <c r="F4">
-        <v>1.048191191737602</v>
+        <v>1.064020079858497</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058785225360157</v>
+        <v>1.043293857447577</v>
       </c>
       <c r="J4">
-        <v>1.041469326035771</v>
+        <v>1.050472513907413</v>
       </c>
       <c r="K4">
-        <v>1.051800546208147</v>
+        <v>1.055696341392797</v>
       </c>
       <c r="L4">
-        <v>1.045741537237572</v>
+        <v>1.055953230913457</v>
       </c>
       <c r="M4">
-        <v>1.057740805384995</v>
+        <v>1.06643519045166</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023865854406965</v>
+        <v>1.046260297376032</v>
       </c>
       <c r="D5">
-        <v>1.043145964950551</v>
+        <v>1.053467792565738</v>
       </c>
       <c r="E5">
-        <v>1.037080668978468</v>
+        <v>1.053748135687779</v>
       </c>
       <c r="F5">
-        <v>1.049261185202205</v>
+        <v>1.064264291108597</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059158806910657</v>
+        <v>1.043352699109338</v>
       </c>
       <c r="J5">
-        <v>1.042238917217622</v>
+        <v>1.050647387016301</v>
       </c>
       <c r="K5">
-        <v>1.052537854692069</v>
+        <v>1.055857540747686</v>
       </c>
       <c r="L5">
-        <v>1.046537337192025</v>
+        <v>1.056137215074529</v>
       </c>
       <c r="M5">
-        <v>1.058588689788729</v>
+        <v>1.066628555876497</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024072991659456</v>
+        <v>1.046305855993346</v>
       </c>
       <c r="D6">
-        <v>1.04330651472798</v>
+        <v>1.05350348016159</v>
       </c>
       <c r="E6">
-        <v>1.037251481709268</v>
+        <v>1.053787664521422</v>
       </c>
       <c r="F6">
-        <v>1.049440170288163</v>
+        <v>1.064305301122513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059221084160199</v>
+        <v>1.043362556121699</v>
       </c>
       <c r="J6">
-        <v>1.042367574560707</v>
+        <v>1.050676745575575</v>
       </c>
       <c r="K6">
-        <v>1.052661069860447</v>
+        <v>1.055884597407832</v>
       </c>
       <c r="L6">
-        <v>1.046670404711681</v>
+        <v>1.056168106397653</v>
       </c>
       <c r="M6">
-        <v>1.058730446725922</v>
+        <v>1.066661019722324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022643843042682</v>
+        <v>1.045992616454539</v>
       </c>
       <c r="D7">
-        <v>1.042198814106287</v>
+        <v>1.053258084369326</v>
       </c>
       <c r="E7">
-        <v>1.036073364726906</v>
+        <v>1.053515906613406</v>
       </c>
       <c r="F7">
-        <v>1.048205534277847</v>
+        <v>1.064023342626926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058790247347963</v>
+        <v>1.043294645217493</v>
       </c>
       <c r="J7">
-        <v>1.041479647088104</v>
+        <v>1.050474850798021</v>
       </c>
       <c r="K7">
-        <v>1.051810437348063</v>
+        <v>1.055698495977046</v>
       </c>
       <c r="L7">
-        <v>1.045752207848127</v>
+        <v>1.055955689346773</v>
       </c>
       <c r="M7">
-        <v>1.057752175701556</v>
+        <v>1.066437774414216</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016546161031995</v>
+        <v>1.044684081793975</v>
       </c>
       <c r="D8">
-        <v>1.037473448460348</v>
+        <v>1.05223235030321</v>
       </c>
       <c r="E8">
-        <v>1.031057393016268</v>
+        <v>1.052381252399294</v>
       </c>
       <c r="F8">
-        <v>1.042945079446326</v>
+        <v>1.062845660666198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056923291444611</v>
+        <v>1.043007498856112</v>
       </c>
       <c r="J8">
-        <v>1.037685044457875</v>
+        <v>1.049630476840282</v>
       </c>
       <c r="K8">
-        <v>1.048168659809517</v>
+        <v>1.054919265811351</v>
       </c>
       <c r="L8">
-        <v>1.041832484637438</v>
+        <v>1.055067765658036</v>
       </c>
       <c r="M8">
-        <v>1.053573133974293</v>
+        <v>1.065504210143885</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005295937167062</v>
+        <v>1.042381173604827</v>
       </c>
       <c r="D9">
-        <v>1.028762291558452</v>
+        <v>1.050424885170535</v>
       </c>
       <c r="E9">
-        <v>1.021847122072293</v>
+        <v>1.050386636631545</v>
       </c>
       <c r="F9">
-        <v>1.033271258309088</v>
+        <v>1.060773755391653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05337193832632</v>
+        <v>1.042489149843759</v>
       </c>
       <c r="J9">
-        <v>1.030663058384253</v>
+        <v>1.048140804726659</v>
       </c>
       <c r="K9">
-        <v>1.041405341158361</v>
+        <v>1.053541114161126</v>
       </c>
       <c r="L9">
-        <v>1.034595417369846</v>
+        <v>1.053502986677744</v>
       </c>
       <c r="M9">
-        <v>1.045846648652597</v>
+        <v>1.063857580832341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9974175854813566</v>
+        <v>1.040847891787882</v>
       </c>
       <c r="D10">
-        <v>1.022670905446116</v>
+        <v>1.049219988837329</v>
       </c>
       <c r="E10">
-        <v>1.015430651084112</v>
+        <v>1.049060184164096</v>
       </c>
       <c r="F10">
-        <v>1.026522038139916</v>
+        <v>1.059394792829574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050815977069607</v>
+        <v>1.042135309414604</v>
       </c>
       <c r="J10">
-        <v>1.02573403802317</v>
+        <v>1.047146545637738</v>
       </c>
       <c r="K10">
-        <v>1.036642548842884</v>
+        <v>1.052619009500177</v>
       </c>
       <c r="L10">
-        <v>1.029526779561154</v>
+        <v>1.052459760146617</v>
       </c>
       <c r="M10">
-        <v>1.040428390142076</v>
+        <v>1.062758835441816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9939071198878611</v>
+        <v>1.040184444223569</v>
       </c>
       <c r="D11">
-        <v>1.019959754970555</v>
+        <v>1.048698289728792</v>
       </c>
       <c r="E11">
-        <v>1.012580297303785</v>
+        <v>1.048486610842391</v>
       </c>
       <c r="F11">
-        <v>1.023521562100138</v>
+        <v>1.058798249518441</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049661482631829</v>
+        <v>1.041980137350508</v>
       </c>
       <c r="J11">
-        <v>1.023535585018182</v>
+        <v>1.046715759332396</v>
       </c>
       <c r="K11">
-        <v>1.03451482682086</v>
+        <v>1.052218948258388</v>
       </c>
       <c r="L11">
-        <v>1.027268804320062</v>
+        <v>1.052008033421842</v>
       </c>
       <c r="M11">
-        <v>1.03801312276242</v>
+        <v>1.062282844009538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9925874264758635</v>
+        <v>1.039938082001035</v>
       </c>
       <c r="D12">
-        <v>1.018941097025442</v>
+        <v>1.048504512981638</v>
       </c>
       <c r="E12">
-        <v>1.011510144289744</v>
+        <v>1.048273679897675</v>
       </c>
       <c r="F12">
-        <v>1.022394701546512</v>
+        <v>1.058576751582396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049225196970805</v>
+        <v>1.041922206088461</v>
       </c>
       <c r="J12">
-        <v>1.022708846903813</v>
+        <v>1.046555706998801</v>
       </c>
       <c r="K12">
-        <v>1.033714195078516</v>
+        <v>1.052070230828977</v>
       </c>
       <c r="L12">
-        <v>1.026420101200196</v>
+        <v>1.051840242471266</v>
       </c>
       <c r="M12">
-        <v>1.037105073673628</v>
+        <v>1.062106006415741</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9928712324840024</v>
+        <v>1.039990924278012</v>
       </c>
       <c r="D13">
-        <v>1.019160137806733</v>
+        <v>1.048546078482521</v>
       </c>
       <c r="E13">
-        <v>1.011740221769984</v>
+        <v>1.048319348872116</v>
       </c>
       <c r="F13">
-        <v>1.022636986410332</v>
+        <v>1.058624259784606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049319123826288</v>
+        <v>1.041934645811293</v>
       </c>
       <c r="J13">
-        <v>1.022886652015392</v>
+        <v>1.046590040525406</v>
       </c>
       <c r="K13">
-        <v>1.033886407451213</v>
+        <v>1.052102136496815</v>
       </c>
       <c r="L13">
-        <v>1.026602611283375</v>
+        <v>1.051876234164422</v>
       </c>
       <c r="M13">
-        <v>1.037300355895891</v>
+        <v>1.062143940165664</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9937983601348578</v>
+        <v>1.040164078378432</v>
       </c>
       <c r="D14">
-        <v>1.019875792769999</v>
+        <v>1.048682271962793</v>
       </c>
       <c r="E14">
-        <v>1.012492074335636</v>
+        <v>1.048469007455163</v>
       </c>
       <c r="F14">
-        <v>1.023428671185369</v>
+        <v>1.058779938692956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049625572903118</v>
+        <v>1.041975354717443</v>
       </c>
       <c r="J14">
-        <v>1.023467456329282</v>
+        <v>1.046702530150093</v>
       </c>
       <c r="K14">
-        <v>1.034448859356602</v>
+        <v>1.052206657608276</v>
       </c>
       <c r="L14">
-        <v>1.027198857029851</v>
+        <v>1.051994163754882</v>
       </c>
       <c r="M14">
-        <v>1.037938288899752</v>
+        <v>1.062268227230085</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9943674801299375</v>
+        <v>1.040270773858907</v>
       </c>
       <c r="D15">
-        <v>1.020315174545723</v>
+        <v>1.048766186029015</v>
       </c>
       <c r="E15">
-        <v>1.012953785917737</v>
+        <v>1.048561232946199</v>
       </c>
       <c r="F15">
-        <v>1.023914798242137</v>
+        <v>1.058875868880287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049813389665491</v>
+        <v>1.042000397949517</v>
       </c>
       <c r="J15">
-        <v>1.023823950636262</v>
+        <v>1.046771833560096</v>
       </c>
       <c r="K15">
-        <v>1.034794024766721</v>
+        <v>1.052271041054696</v>
       </c>
       <c r="L15">
-        <v>1.027564884551924</v>
+        <v>1.052066824156111</v>
       </c>
       <c r="M15">
-        <v>1.038329878275251</v>
+        <v>1.062344800224944</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9976484035901507</v>
+        <v>1.040891932646056</v>
       </c>
       <c r="D16">
-        <v>1.022849238633086</v>
+        <v>1.049254612999868</v>
       </c>
       <c r="E16">
-        <v>1.015618253669687</v>
+        <v>1.049098267064021</v>
       </c>
       <c r="F16">
-        <v>1.026719473407955</v>
+        <v>1.059434395272673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050891567512894</v>
+        <v>1.04214556649175</v>
       </c>
       <c r="J16">
-        <v>1.025878548881398</v>
+        <v>1.047175129977499</v>
       </c>
       <c r="K16">
-        <v>1.036782341007759</v>
+        <v>1.052645543808796</v>
       </c>
       <c r="L16">
-        <v>1.029675260702373</v>
+        <v>1.05248973977892</v>
       </c>
       <c r="M16">
-        <v>1.040587183031753</v>
+        <v>1.062790420718126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9996793216272761</v>
+        <v>1.041281696351276</v>
       </c>
       <c r="D17">
-        <v>1.024418712986868</v>
+        <v>1.04956099892114</v>
       </c>
       <c r="E17">
-        <v>1.017269928710072</v>
+        <v>1.049435346510898</v>
       </c>
       <c r="F17">
-        <v>1.028457453815471</v>
+        <v>1.059784893976193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051554904285277</v>
+        <v>1.042236103369134</v>
       </c>
       <c r="J17">
-        <v>1.027149828612209</v>
+        <v>1.047428036617396</v>
       </c>
       <c r="K17">
-        <v>1.038011724308295</v>
+        <v>1.052880250266552</v>
       </c>
       <c r="L17">
-        <v>1.0309817808995</v>
+        <v>1.052755023461918</v>
       </c>
       <c r="M17">
-        <v>1.041984263921418</v>
+        <v>1.063069886488515</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000854422824326</v>
+        <v>1.041509084580057</v>
       </c>
       <c r="D18">
-        <v>1.025327105625905</v>
+        <v>1.049739711360174</v>
       </c>
       <c r="E18">
-        <v>1.018226419842204</v>
+        <v>1.049632035334215</v>
       </c>
       <c r="F18">
-        <v>1.02946370537466</v>
+        <v>1.059989387561974</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051937230632013</v>
+        <v>1.042288723156613</v>
       </c>
       <c r="J18">
-        <v>1.027885189910137</v>
+        <v>1.047575527106933</v>
       </c>
       <c r="K18">
-        <v>1.038722526314111</v>
+        <v>1.053017074883754</v>
       </c>
       <c r="L18">
-        <v>1.031737787087299</v>
+        <v>1.052909758621361</v>
       </c>
       <c r="M18">
-        <v>1.042792525361415</v>
+        <v>1.063232872134748</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001253515981295</v>
+        <v>1.041586625815506</v>
       </c>
       <c r="D19">
-        <v>1.025635663945858</v>
+        <v>1.049800648108051</v>
       </c>
       <c r="E19">
-        <v>1.018551405004513</v>
+        <v>1.04969911401084</v>
       </c>
       <c r="F19">
-        <v>1.029805560285726</v>
+        <v>1.060059123649071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052066824268832</v>
+        <v>1.042306633097041</v>
       </c>
       <c r="J19">
-        <v>1.028134899670751</v>
+        <v>1.047625813173805</v>
       </c>
       <c r="K19">
-        <v>1.038963840717196</v>
+        <v>1.053063715677081</v>
       </c>
       <c r="L19">
-        <v>1.031994551327558</v>
+        <v>1.052962519230107</v>
       </c>
       <c r="M19">
-        <v>1.043067012058882</v>
+        <v>1.063288442264966</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9994624119012977</v>
+        <v>1.041239873667849</v>
       </c>
       <c r="D20">
-        <v>1.024251056969411</v>
+        <v>1.049528126322014</v>
       </c>
       <c r="E20">
-        <v>1.017093437754396</v>
+        <v>1.049399173198278</v>
       </c>
       <c r="F20">
-        <v>1.028271763372926</v>
+        <v>1.059747283227361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051484210930723</v>
+        <v>1.04222640914782</v>
       </c>
       <c r="J20">
-        <v>1.027014072408389</v>
+        <v>1.047400904778402</v>
       </c>
       <c r="K20">
-        <v>1.037880475647971</v>
+        <v>1.052855076307222</v>
       </c>
       <c r="L20">
-        <v>1.030842234419593</v>
+        <v>1.052726561060513</v>
       </c>
       <c r="M20">
-        <v>1.041835060047432</v>
+        <v>1.063039904725557</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9935257861853711</v>
+        <v>1.040113086826385</v>
       </c>
       <c r="D21">
-        <v>1.019665375634105</v>
+        <v>1.048642166215259</v>
       </c>
       <c r="E21">
-        <v>1.012270992271547</v>
+        <v>1.048424933418494</v>
       </c>
       <c r="F21">
-        <v>1.023195885946399</v>
+        <v>1.058734092783895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04953553944666</v>
+        <v>1.041963375055491</v>
       </c>
       <c r="J21">
-        <v>1.023296707868721</v>
+        <v>1.046669405832986</v>
       </c>
       <c r="K21">
-        <v>1.034283519634749</v>
+        <v>1.05217588196515</v>
       </c>
       <c r="L21">
-        <v>1.027023557436228</v>
+        <v>1.051959436409813</v>
       </c>
       <c r="M21">
-        <v>1.037750739144351</v>
+        <v>1.062231628695474</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9897015932931381</v>
+        <v>1.039405046594322</v>
       </c>
       <c r="D22">
-        <v>1.016714658904907</v>
+        <v>1.048085160511318</v>
       </c>
       <c r="E22">
-        <v>1.009172621955292</v>
+        <v>1.04781308345524</v>
       </c>
       <c r="F22">
-        <v>1.01993268201575</v>
+        <v>1.058097551015612</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048267045387322</v>
+        <v>1.041796297547179</v>
       </c>
       <c r="J22">
-        <v>1.020900544290312</v>
+        <v>1.046209257466639</v>
       </c>
       <c r="K22">
-        <v>1.031962111461511</v>
+        <v>1.051748169782242</v>
       </c>
       <c r="L22">
-        <v>1.02456453146288</v>
+        <v>1.051477117838632</v>
       </c>
       <c r="M22">
-        <v>1.035119347263627</v>
+        <v>1.061723241978731</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9917378582103505</v>
+        <v>1.039780352546444</v>
       </c>
       <c r="D23">
-        <v>1.018285489526061</v>
+        <v>1.048380436292671</v>
       </c>
       <c r="E23">
-        <v>1.010821620085701</v>
+        <v>1.048137370606701</v>
       </c>
       <c r="F23">
-        <v>1.021669595450384</v>
+        <v>1.058434946886321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048943700606133</v>
+        <v>1.0418850292216</v>
       </c>
       <c r="J23">
-        <v>1.022176554990151</v>
+        <v>1.046453211979522</v>
       </c>
       <c r="K23">
-        <v>1.033198575476769</v>
+        <v>1.051974971858643</v>
       </c>
       <c r="L23">
-        <v>1.025873785888029</v>
+        <v>1.051732803447034</v>
       </c>
       <c r="M23">
-        <v>1.03652049460184</v>
+        <v>1.061992765219269</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9995604533611172</v>
+        <v>1.041258771397168</v>
       </c>
       <c r="D24">
-        <v>1.024326835268518</v>
+        <v>1.049542980026275</v>
       </c>
       <c r="E24">
-        <v>1.017173207709723</v>
+        <v>1.049415518126185</v>
       </c>
       <c r="F24">
-        <v>1.028355691970066</v>
+        <v>1.059764277740225</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051516168368543</v>
+        <v>1.042230790132662</v>
       </c>
       <c r="J24">
-        <v>1.027075433776919</v>
+        <v>1.047413164567934</v>
       </c>
       <c r="K24">
-        <v>1.0379398006296</v>
+        <v>1.052866451569758</v>
       </c>
       <c r="L24">
-        <v>1.030905308173825</v>
+        <v>1.052739421995615</v>
       </c>
       <c r="M24">
-        <v>1.041902499312926</v>
+        <v>1.063053452261754</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008268073670236</v>
+        <v>1.042976182881879</v>
       </c>
       <c r="D25">
-        <v>1.031062415104654</v>
+        <v>1.05089214946898</v>
       </c>
       <c r="E25">
-        <v>1.024274847214832</v>
+        <v>1.05090171767139</v>
       </c>
       <c r="F25">
-        <v>1.035822870594741</v>
+        <v>1.061308991305862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054322282082311</v>
+        <v>1.042624616542084</v>
       </c>
       <c r="J25">
-        <v>1.032520352403822</v>
+        <v>1.048526126073632</v>
       </c>
       <c r="K25">
-        <v>1.04319693134424</v>
+        <v>1.053897991741942</v>
       </c>
       <c r="L25">
-        <v>1.036507662306322</v>
+        <v>1.053907530809498</v>
       </c>
       <c r="M25">
-        <v>1.047889417160032</v>
+        <v>1.06428345351231</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_91/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044347406509429</v>
+        <v>1.014943399621909</v>
       </c>
       <c r="D2">
-        <v>1.051968282271224</v>
+        <v>1.036231734222028</v>
       </c>
       <c r="E2">
-        <v>1.052089468472426</v>
+        <v>1.029741782526987</v>
       </c>
       <c r="F2">
-        <v>1.062542699770794</v>
+        <v>1.041564365801396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042932735327767</v>
+        <v>1.056425342864225</v>
       </c>
       <c r="J2">
-        <v>1.049412977925657</v>
+        <v>1.036686161158872</v>
       </c>
       <c r="K2">
-        <v>1.054718315282301</v>
+        <v>1.047208366280147</v>
       </c>
       <c r="L2">
-        <v>1.054839165913459</v>
+        <v>1.040801752107218</v>
       </c>
       <c r="M2">
-        <v>1.065263763622047</v>
+        <v>1.052473491182524</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045343851258234</v>
+        <v>1.019646580322026</v>
       </c>
       <c r="D3">
-        <v>1.052749651937033</v>
+        <v>1.039875893042614</v>
       </c>
       <c r="E3">
-        <v>1.052953231347063</v>
+        <v>1.033605666090762</v>
       </c>
       <c r="F3">
-        <v>1.063439417389199</v>
+        <v>1.045618316539837</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043152968992481</v>
+        <v>1.057878188693021</v>
       </c>
       <c r="J3">
-        <v>1.050056408429247</v>
+        <v>1.039615620610031</v>
       </c>
       <c r="K3">
-        <v>1.055312517614185</v>
+        <v>1.05002276325145</v>
       </c>
       <c r="L3">
-        <v>1.055515574008128</v>
+        <v>1.043825880741327</v>
       </c>
       <c r="M3">
-        <v>1.065975111797181</v>
+        <v>1.055698968807724</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045988991601382</v>
+        <v>1.022627236486989</v>
       </c>
       <c r="D4">
-        <v>1.053255244276344</v>
+        <v>1.042185943004128</v>
       </c>
       <c r="E4">
-        <v>1.053512762115651</v>
+        <v>1.036059680752979</v>
       </c>
       <c r="F4">
-        <v>1.064020079858497</v>
+        <v>1.048191191737602</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043293857447577</v>
+        <v>1.058785225360157</v>
       </c>
       <c r="J4">
-        <v>1.050472513907413</v>
+        <v>1.041469326035771</v>
       </c>
       <c r="K4">
-        <v>1.055696341392797</v>
+        <v>1.051800546208148</v>
       </c>
       <c r="L4">
-        <v>1.055953230913457</v>
+        <v>1.045741537237573</v>
       </c>
       <c r="M4">
-        <v>1.06643519045166</v>
+        <v>1.057740805384995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046260297376032</v>
+        <v>1.023865854406965</v>
       </c>
       <c r="D5">
-        <v>1.053467792565738</v>
+        <v>1.043145964950552</v>
       </c>
       <c r="E5">
-        <v>1.053748135687779</v>
+        <v>1.037080668978469</v>
       </c>
       <c r="F5">
-        <v>1.064264291108597</v>
+        <v>1.049261185202206</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043352699109338</v>
+        <v>1.059158806910658</v>
       </c>
       <c r="J5">
-        <v>1.050647387016301</v>
+        <v>1.042238917217623</v>
       </c>
       <c r="K5">
-        <v>1.055857540747686</v>
+        <v>1.05253785469207</v>
       </c>
       <c r="L5">
-        <v>1.056137215074529</v>
+        <v>1.046537337192026</v>
       </c>
       <c r="M5">
-        <v>1.066628555876497</v>
+        <v>1.05858868978873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046305855993346</v>
+        <v>1.024072991659456</v>
       </c>
       <c r="D6">
-        <v>1.05350348016159</v>
+        <v>1.043306514727981</v>
       </c>
       <c r="E6">
-        <v>1.053787664521422</v>
+        <v>1.037251481709268</v>
       </c>
       <c r="F6">
-        <v>1.064305301122513</v>
+        <v>1.049440170288163</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043362556121699</v>
+        <v>1.059221084160199</v>
       </c>
       <c r="J6">
-        <v>1.050676745575575</v>
+        <v>1.042367574560707</v>
       </c>
       <c r="K6">
-        <v>1.055884597407832</v>
+        <v>1.052661069860447</v>
       </c>
       <c r="L6">
-        <v>1.056168106397653</v>
+        <v>1.046670404711681</v>
       </c>
       <c r="M6">
-        <v>1.066661019722324</v>
+        <v>1.058730446725922</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045992616454539</v>
+        <v>1.022643843042682</v>
       </c>
       <c r="D7">
-        <v>1.053258084369326</v>
+        <v>1.042198814106287</v>
       </c>
       <c r="E7">
-        <v>1.053515906613406</v>
+        <v>1.036073364726906</v>
       </c>
       <c r="F7">
-        <v>1.064023342626926</v>
+        <v>1.048205534277847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043294645217493</v>
+        <v>1.058790247347964</v>
       </c>
       <c r="J7">
-        <v>1.050474850798021</v>
+        <v>1.041479647088105</v>
       </c>
       <c r="K7">
-        <v>1.055698495977046</v>
+        <v>1.051810437348064</v>
       </c>
       <c r="L7">
-        <v>1.055955689346773</v>
+        <v>1.045752207848127</v>
       </c>
       <c r="M7">
-        <v>1.066437774414216</v>
+        <v>1.057752175701557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044684081793975</v>
+        <v>1.016546161031996</v>
       </c>
       <c r="D8">
-        <v>1.05223235030321</v>
+        <v>1.037473448460349</v>
       </c>
       <c r="E8">
-        <v>1.052381252399294</v>
+        <v>1.031057393016269</v>
       </c>
       <c r="F8">
-        <v>1.062845660666198</v>
+        <v>1.042945079446327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043007498856112</v>
+        <v>1.056923291444611</v>
       </c>
       <c r="J8">
-        <v>1.049630476840282</v>
+        <v>1.037685044457877</v>
       </c>
       <c r="K8">
-        <v>1.054919265811351</v>
+        <v>1.048168659809518</v>
       </c>
       <c r="L8">
-        <v>1.055067765658036</v>
+        <v>1.041832484637439</v>
       </c>
       <c r="M8">
-        <v>1.065504210143885</v>
+        <v>1.053573133974294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042381173604827</v>
+        <v>1.00529593716706</v>
       </c>
       <c r="D9">
-        <v>1.050424885170535</v>
+        <v>1.028762291558451</v>
       </c>
       <c r="E9">
-        <v>1.050386636631545</v>
+        <v>1.021847122072292</v>
       </c>
       <c r="F9">
-        <v>1.060773755391653</v>
+        <v>1.033271258309086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042489149843759</v>
+        <v>1.05337193832632</v>
       </c>
       <c r="J9">
-        <v>1.048140804726659</v>
+        <v>1.030663058384252</v>
       </c>
       <c r="K9">
-        <v>1.053541114161126</v>
+        <v>1.041405341158361</v>
       </c>
       <c r="L9">
-        <v>1.053502986677744</v>
+        <v>1.034595417369845</v>
       </c>
       <c r="M9">
-        <v>1.063857580832341</v>
+        <v>1.045846648652596</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040847891787882</v>
+        <v>0.9974175854813564</v>
       </c>
       <c r="D10">
-        <v>1.049219988837329</v>
+        <v>1.022670905446116</v>
       </c>
       <c r="E10">
-        <v>1.049060184164096</v>
+        <v>1.015430651084112</v>
       </c>
       <c r="F10">
-        <v>1.059394792829574</v>
+        <v>1.026522038139916</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042135309414604</v>
+        <v>1.050815977069607</v>
       </c>
       <c r="J10">
-        <v>1.047146545637738</v>
+        <v>1.02573403802317</v>
       </c>
       <c r="K10">
-        <v>1.052619009500177</v>
+        <v>1.036642548842884</v>
       </c>
       <c r="L10">
-        <v>1.052459760146617</v>
+        <v>1.029526779561153</v>
       </c>
       <c r="M10">
-        <v>1.062758835441816</v>
+        <v>1.040428390142076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040184444223569</v>
+        <v>0.9939071198878603</v>
       </c>
       <c r="D11">
-        <v>1.048698289728792</v>
+        <v>1.019959754970554</v>
       </c>
       <c r="E11">
-        <v>1.048486610842391</v>
+        <v>1.012580297303784</v>
       </c>
       <c r="F11">
-        <v>1.058798249518441</v>
+        <v>1.023521562100137</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041980137350508</v>
+        <v>1.049661482631829</v>
       </c>
       <c r="J11">
-        <v>1.046715759332396</v>
+        <v>1.023535585018181</v>
       </c>
       <c r="K11">
-        <v>1.052218948258388</v>
+        <v>1.034514826820859</v>
       </c>
       <c r="L11">
-        <v>1.052008033421842</v>
+        <v>1.027268804320062</v>
       </c>
       <c r="M11">
-        <v>1.062282844009538</v>
+        <v>1.038013122762419</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039938082001035</v>
+        <v>0.9925874264758643</v>
       </c>
       <c r="D12">
-        <v>1.048504512981638</v>
+        <v>1.018941097025442</v>
       </c>
       <c r="E12">
-        <v>1.048273679897675</v>
+        <v>1.011510144289745</v>
       </c>
       <c r="F12">
-        <v>1.058576751582396</v>
+        <v>1.022394701546513</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041922206088461</v>
+        <v>1.049225196970805</v>
       </c>
       <c r="J12">
-        <v>1.046555706998801</v>
+        <v>1.022708846903814</v>
       </c>
       <c r="K12">
-        <v>1.052070230828977</v>
+        <v>1.033714195078516</v>
       </c>
       <c r="L12">
-        <v>1.051840242471266</v>
+        <v>1.026420101200197</v>
       </c>
       <c r="M12">
-        <v>1.062106006415741</v>
+        <v>1.037105073673629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039990924278012</v>
+        <v>0.9928712324840018</v>
       </c>
       <c r="D13">
-        <v>1.048546078482521</v>
+        <v>1.019160137806732</v>
       </c>
       <c r="E13">
-        <v>1.048319348872116</v>
+        <v>1.011740221769984</v>
       </c>
       <c r="F13">
-        <v>1.058624259784606</v>
+        <v>1.022636986410331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041934645811293</v>
+        <v>1.049319123826287</v>
       </c>
       <c r="J13">
-        <v>1.046590040525406</v>
+        <v>1.022886652015391</v>
       </c>
       <c r="K13">
-        <v>1.052102136496815</v>
+        <v>1.033886407451212</v>
       </c>
       <c r="L13">
-        <v>1.051876234164422</v>
+        <v>1.026602611283375</v>
       </c>
       <c r="M13">
-        <v>1.062143940165664</v>
+        <v>1.03730035589589</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040164078378432</v>
+        <v>0.9937983601348581</v>
       </c>
       <c r="D14">
-        <v>1.048682271962793</v>
+        <v>1.01987579277</v>
       </c>
       <c r="E14">
-        <v>1.048469007455163</v>
+        <v>1.012492074335636</v>
       </c>
       <c r="F14">
-        <v>1.058779938692956</v>
+        <v>1.023428671185369</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041975354717443</v>
+        <v>1.049625572903118</v>
       </c>
       <c r="J14">
-        <v>1.046702530150093</v>
+        <v>1.023467456329282</v>
       </c>
       <c r="K14">
-        <v>1.052206657608276</v>
+        <v>1.034448859356602</v>
       </c>
       <c r="L14">
-        <v>1.051994163754882</v>
+        <v>1.027198857029851</v>
       </c>
       <c r="M14">
-        <v>1.062268227230085</v>
+        <v>1.037938288899752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040270773858907</v>
+        <v>0.9943674801299375</v>
       </c>
       <c r="D15">
-        <v>1.048766186029015</v>
+        <v>1.020315174545723</v>
       </c>
       <c r="E15">
-        <v>1.048561232946199</v>
+        <v>1.012953785917737</v>
       </c>
       <c r="F15">
-        <v>1.058875868880287</v>
+        <v>1.023914798242137</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042000397949517</v>
+        <v>1.049813389665492</v>
       </c>
       <c r="J15">
-        <v>1.046771833560096</v>
+        <v>1.023823950636262</v>
       </c>
       <c r="K15">
-        <v>1.052271041054696</v>
+        <v>1.034794024766721</v>
       </c>
       <c r="L15">
-        <v>1.052066824156111</v>
+        <v>1.027564884551924</v>
       </c>
       <c r="M15">
-        <v>1.062344800224944</v>
+        <v>1.038329878275251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040891932646056</v>
+        <v>0.9976484035901507</v>
       </c>
       <c r="D16">
-        <v>1.049254612999868</v>
+        <v>1.022849238633086</v>
       </c>
       <c r="E16">
-        <v>1.049098267064021</v>
+        <v>1.015618253669687</v>
       </c>
       <c r="F16">
-        <v>1.059434395272673</v>
+        <v>1.026719473407955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04214556649175</v>
+        <v>1.050891567512894</v>
       </c>
       <c r="J16">
-        <v>1.047175129977499</v>
+        <v>1.025878548881398</v>
       </c>
       <c r="K16">
-        <v>1.052645543808796</v>
+        <v>1.036782341007759</v>
       </c>
       <c r="L16">
-        <v>1.05248973977892</v>
+        <v>1.029675260702373</v>
       </c>
       <c r="M16">
-        <v>1.062790420718126</v>
+        <v>1.040587183031753</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041281696351276</v>
+        <v>0.9996793216272762</v>
       </c>
       <c r="D17">
-        <v>1.04956099892114</v>
+        <v>1.024418712986868</v>
       </c>
       <c r="E17">
-        <v>1.049435346510898</v>
+        <v>1.017269928710072</v>
       </c>
       <c r="F17">
-        <v>1.059784893976193</v>
+        <v>1.028457453815471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042236103369134</v>
+        <v>1.051554904285277</v>
       </c>
       <c r="J17">
-        <v>1.047428036617396</v>
+        <v>1.027149828612209</v>
       </c>
       <c r="K17">
-        <v>1.052880250266552</v>
+        <v>1.038011724308295</v>
       </c>
       <c r="L17">
-        <v>1.052755023461918</v>
+        <v>1.0309817808995</v>
       </c>
       <c r="M17">
-        <v>1.063069886488515</v>
+        <v>1.041984263921418</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041509084580057</v>
+        <v>1.000854422824326</v>
       </c>
       <c r="D18">
-        <v>1.049739711360174</v>
+        <v>1.025327105625905</v>
       </c>
       <c r="E18">
-        <v>1.049632035334215</v>
+        <v>1.018226419842204</v>
       </c>
       <c r="F18">
-        <v>1.059989387561974</v>
+        <v>1.02946370537466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042288723156613</v>
+        <v>1.051937230632013</v>
       </c>
       <c r="J18">
-        <v>1.047575527106933</v>
+        <v>1.027885189910137</v>
       </c>
       <c r="K18">
-        <v>1.053017074883754</v>
+        <v>1.038722526314111</v>
       </c>
       <c r="L18">
-        <v>1.052909758621361</v>
+        <v>1.0317377870873</v>
       </c>
       <c r="M18">
-        <v>1.063232872134748</v>
+        <v>1.042792525361415</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041586625815506</v>
+        <v>1.001253515981295</v>
       </c>
       <c r="D19">
-        <v>1.049800648108051</v>
+        <v>1.025635663945859</v>
       </c>
       <c r="E19">
-        <v>1.04969911401084</v>
+        <v>1.018551405004513</v>
       </c>
       <c r="F19">
-        <v>1.060059123649071</v>
+        <v>1.029805560285726</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042306633097041</v>
+        <v>1.052066824268833</v>
       </c>
       <c r="J19">
-        <v>1.047625813173805</v>
+        <v>1.028134899670751</v>
       </c>
       <c r="K19">
-        <v>1.053063715677081</v>
+        <v>1.038963840717196</v>
       </c>
       <c r="L19">
-        <v>1.052962519230107</v>
+        <v>1.031994551327558</v>
       </c>
       <c r="M19">
-        <v>1.063288442264966</v>
+        <v>1.043067012058882</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041239873667849</v>
+        <v>0.9994624119012978</v>
       </c>
       <c r="D20">
-        <v>1.049528126322014</v>
+        <v>1.024251056969411</v>
       </c>
       <c r="E20">
-        <v>1.049399173198278</v>
+        <v>1.017093437754396</v>
       </c>
       <c r="F20">
-        <v>1.059747283227361</v>
+        <v>1.028271763372927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04222640914782</v>
+        <v>1.051484210930723</v>
       </c>
       <c r="J20">
-        <v>1.047400904778402</v>
+        <v>1.027014072408389</v>
       </c>
       <c r="K20">
-        <v>1.052855076307222</v>
+        <v>1.037880475647971</v>
       </c>
       <c r="L20">
-        <v>1.052726561060513</v>
+        <v>1.030842234419593</v>
       </c>
       <c r="M20">
-        <v>1.063039904725557</v>
+        <v>1.041835060047433</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040113086826385</v>
+        <v>0.9935257861853701</v>
       </c>
       <c r="D21">
-        <v>1.048642166215259</v>
+        <v>1.019665375634104</v>
       </c>
       <c r="E21">
-        <v>1.048424933418494</v>
+        <v>1.012270992271546</v>
       </c>
       <c r="F21">
-        <v>1.058734092783895</v>
+        <v>1.023195885946399</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041963375055491</v>
+        <v>1.049535539446659</v>
       </c>
       <c r="J21">
-        <v>1.046669405832986</v>
+        <v>1.02329670786872</v>
       </c>
       <c r="K21">
-        <v>1.05217588196515</v>
+        <v>1.034283519634748</v>
       </c>
       <c r="L21">
-        <v>1.051959436409813</v>
+        <v>1.027023557436227</v>
       </c>
       <c r="M21">
-        <v>1.062231628695474</v>
+        <v>1.03775073914435</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039405046594322</v>
+        <v>0.9897015932931367</v>
       </c>
       <c r="D22">
-        <v>1.048085160511318</v>
+        <v>1.016714658904905</v>
       </c>
       <c r="E22">
-        <v>1.04781308345524</v>
+        <v>1.00917262195529</v>
       </c>
       <c r="F22">
-        <v>1.058097551015612</v>
+        <v>1.019932682015748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041796297547179</v>
+        <v>1.048267045387321</v>
       </c>
       <c r="J22">
-        <v>1.046209257466639</v>
+        <v>1.02090054429031</v>
       </c>
       <c r="K22">
-        <v>1.051748169782242</v>
+        <v>1.031962111461509</v>
       </c>
       <c r="L22">
-        <v>1.051477117838632</v>
+        <v>1.024564531462878</v>
       </c>
       <c r="M22">
-        <v>1.061723241978731</v>
+        <v>1.035119347263625</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039780352546444</v>
+        <v>0.9917378582103508</v>
       </c>
       <c r="D23">
-        <v>1.048380436292671</v>
+        <v>1.018285489526061</v>
       </c>
       <c r="E23">
-        <v>1.048137370606701</v>
+        <v>1.010821620085701</v>
       </c>
       <c r="F23">
-        <v>1.058434946886321</v>
+        <v>1.021669595450384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0418850292216</v>
+        <v>1.048943700606133</v>
       </c>
       <c r="J23">
-        <v>1.046453211979522</v>
+        <v>1.022176554990152</v>
       </c>
       <c r="K23">
-        <v>1.051974971858643</v>
+        <v>1.033198575476769</v>
       </c>
       <c r="L23">
-        <v>1.051732803447034</v>
+        <v>1.025873785888029</v>
       </c>
       <c r="M23">
-        <v>1.061992765219269</v>
+        <v>1.03652049460184</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041258771397168</v>
+        <v>0.999560453361118</v>
       </c>
       <c r="D24">
-        <v>1.049542980026275</v>
+        <v>1.024326835268518</v>
       </c>
       <c r="E24">
-        <v>1.049415518126185</v>
+        <v>1.017173207709724</v>
       </c>
       <c r="F24">
-        <v>1.059764277740225</v>
+        <v>1.028355691970067</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042230790132662</v>
+        <v>1.051516168368543</v>
       </c>
       <c r="J24">
-        <v>1.047413164567934</v>
+        <v>1.02707543377692</v>
       </c>
       <c r="K24">
-        <v>1.052866451569758</v>
+        <v>1.0379398006296</v>
       </c>
       <c r="L24">
-        <v>1.052739421995615</v>
+        <v>1.030905308173825</v>
       </c>
       <c r="M24">
-        <v>1.063053452261754</v>
+        <v>1.041902499312927</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042976182881879</v>
+        <v>1.008268073670236</v>
       </c>
       <c r="D25">
-        <v>1.05089214946898</v>
+        <v>1.031062415104655</v>
       </c>
       <c r="E25">
-        <v>1.05090171767139</v>
+        <v>1.024274847214832</v>
       </c>
       <c r="F25">
-        <v>1.061308991305862</v>
+        <v>1.035822870594741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042624616542084</v>
+        <v>1.054322282082311</v>
       </c>
       <c r="J25">
-        <v>1.048526126073632</v>
+        <v>1.032520352403822</v>
       </c>
       <c r="K25">
-        <v>1.053897991741942</v>
+        <v>1.043196931344241</v>
       </c>
       <c r="L25">
-        <v>1.053907530809498</v>
+        <v>1.036507662306322</v>
       </c>
       <c r="M25">
-        <v>1.06428345351231</v>
+        <v>1.047889417160032</v>
       </c>
     </row>
   </sheetData>
